--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111633890</v>
+        <v>111633837</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111633843</v>
+        <v>111634304</v>
       </c>
       <c r="B5" t="n">
         <v>90687</v>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R5" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111634304</v>
+        <v>111633843</v>
       </c>
       <c r="B6" t="n">
         <v>90687</v>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R6" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111633837</v>
+        <v>111633890</v>
       </c>
       <c r="B7" t="n">
-        <v>98535</v>
+        <v>90658</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1255,25 +1255,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111633837</v>
+        <v>111634304</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R4" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111634304</v>
+        <v>111633837</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,21 +1033,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R5" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111633843</v>
+        <v>111633890</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1142,25 +1142,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111633890</v>
+        <v>111634290</v>
       </c>
       <c r="B7" t="n">
-        <v>90658</v>
+        <v>98535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1255,25 +1255,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R7" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111634290</v>
+        <v>111633843</v>
       </c>
       <c r="B8" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,21 +1372,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R8" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111634304</v>
+        <v>111633890</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R4" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111633837</v>
+        <v>111633843</v>
       </c>
       <c r="B5" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,21 +1033,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111633890</v>
+        <v>111634304</v>
       </c>
       <c r="B6" t="n">
-        <v>90658</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1142,25 +1142,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R6" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111634290</v>
+        <v>111633837</v>
       </c>
       <c r="B7" t="n">
         <v>98535</v>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R7" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111633843</v>
+        <v>111634290</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,21 +1372,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R8" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111633890</v>
+        <v>111633837</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111633843</v>
+        <v>111633890</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,25 +1029,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111634304</v>
+        <v>111633843</v>
       </c>
       <c r="B6" t="n">
         <v>90687</v>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R6" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111633837</v>
+        <v>111634290</v>
       </c>
       <c r="B7" t="n">
         <v>98535</v>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R7" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111634290</v>
+        <v>111634304</v>
       </c>
       <c r="B8" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,21 +1372,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111633837</v>
+        <v>111633890</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111633890</v>
+        <v>111633843</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,25 +1029,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111633843</v>
+        <v>111633837</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1146,21 +1146,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111634290</v>
+        <v>111634304</v>
       </c>
       <c r="B7" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1259,21 +1259,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111634304</v>
+        <v>111634290</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,21 +1372,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111633890</v>
+        <v>111634290</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R4" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111633837</v>
+        <v>111634304</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1146,21 +1146,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R6" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111634304</v>
+        <v>111633837</v>
       </c>
       <c r="B7" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1259,21 +1259,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R7" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111634290</v>
+        <v>111633890</v>
       </c>
       <c r="B8" t="n">
-        <v>98535</v>
+        <v>90658</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,25 +1368,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R8" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111634290</v>
+        <v>111633843</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R4" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111633843</v>
+        <v>111633890</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,25 +1029,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111634304</v>
+        <v>111633837</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1146,21 +1146,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R6" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111633837</v>
+        <v>111634290</v>
       </c>
       <c r="B7" t="n">
         <v>98535</v>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R7" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111633890</v>
+        <v>111634304</v>
       </c>
       <c r="B8" t="n">
-        <v>90658</v>
+        <v>90687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,25 +1368,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R8" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111633843</v>
+        <v>111633890</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111633890</v>
+        <v>111634304</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,25 +1029,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R5" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111633837</v>
+        <v>111633843</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1146,21 +1146,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111634304</v>
+        <v>111633837</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,21 +1372,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R8" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111633890</v>
+        <v>111634304</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R4" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111634304</v>
+        <v>111633890</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,25 +1029,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R5" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111634304</v>
+        <v>111634290</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111633890</v>
+        <v>111634304</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,25 +1029,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>676486.710397501</v>
+        <v>676708.8668162767</v>
       </c>
       <c r="R5" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511.450801066</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111634290</v>
+        <v>111633890</v>
       </c>
       <c r="B7" t="n">
-        <v>98535</v>
+        <v>90658</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1255,25 +1255,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>676708.8668162767</v>
+        <v>676486.710397501</v>
       </c>
       <c r="R7" t="n">
-        <v>6618511.450801066</v>
+        <v>6618439.724061669</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>676708.8668162767</v>
+        <v>676709</v>
       </c>
       <c r="R4" t="n">
-        <v>6618511.450801066</v>
+        <v>6618511</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111634304</v>
+        <v>111633890</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,25 +1029,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>676708.8668162767</v>
+        <v>676487</v>
       </c>
       <c r="R5" t="n">
-        <v>6618511.450801066</v>
+        <v>6618440</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>676486.710397501</v>
+        <v>676487</v>
       </c>
       <c r="R6" t="n">
-        <v>6618439.724061669</v>
+        <v>6618440</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111633890</v>
+        <v>111633837</v>
       </c>
       <c r="B7" t="n">
-        <v>90658</v>
+        <v>98535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1255,25 +1255,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>676486.710397501</v>
+        <v>676487</v>
       </c>
       <c r="R7" t="n">
-        <v>6618439.724061669</v>
+        <v>6618440</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111633837</v>
+        <v>111634304</v>
       </c>
       <c r="B8" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1372,21 +1372,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>676486.710397501</v>
+        <v>676709</v>
       </c>
       <c r="R8" t="n">
-        <v>6618439.724061669</v>
+        <v>6618511</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2682473</v>
+        <v>111634290</v>
       </c>
       <c r="B2" t="n">
-        <v>101691</v>
+        <v>98535</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220164</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Solvända</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Helianthemum nummularium</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>150 m SSÖ om Örsta, vägkanten i kurvan, Upl</t>
+          <t>Örsta, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>676571.1877922384</v>
+        <v>676709</v>
       </c>
       <c r="R2" t="n">
-        <v>6617992.858972132</v>
+        <v>6618511</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,22 +751,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2012-06-25</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2012-06-25</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Karolin Hård</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Karolin Hård</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4197334</v>
+        <v>111633890</v>
       </c>
       <c r="B3" t="n">
-        <v>104404</v>
+        <v>90658</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +809,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221849</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Backtimjan</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Thymus serpyllum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>150 m SSÖ om Örsta, vägkanten i kurvan, Upl</t>
+          <t>Örsta, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>676571.1877922384</v>
+        <v>676487</v>
       </c>
       <c r="R3" t="n">
-        <v>6617992.858972132</v>
+        <v>6618440</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,22 +864,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2012-06-25</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2012-06-25</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -892,22 +894,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Karolin Hård</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Karolin Hård</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111634290</v>
+        <v>111633843</v>
       </c>
       <c r="B4" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -945,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>676709</v>
+        <v>676487</v>
       </c>
       <c r="R4" t="n">
-        <v>6618511</v>
+        <v>6618440</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1017,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111633890</v>
+        <v>111633837</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>98535</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1130,7 +1132,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111633843</v>
+        <v>111634304</v>
       </c>
       <c r="B6" t="n">
         <v>90687</v>
@@ -1171,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>676487</v>
+        <v>676709</v>
       </c>
       <c r="R6" t="n">
-        <v>6618440</v>
+        <v>6618511</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1243,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111633837</v>
+        <v>2682473</v>
       </c>
       <c r="B7" t="n">
-        <v>98535</v>
+        <v>101691</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1255,42 +1257,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>220164</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Solvända</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Helianthemum nummularium</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Örsta, Upl</t>
+          <t>150 m SSÖ om Örsta, vägkanten i kurvan, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>676487</v>
+        <v>676571.1877922384</v>
       </c>
       <c r="R7" t="n">
-        <v>6618440</v>
+        <v>6617992.858972132</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1314,22 +1315,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2012-06-25</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2012-06-25</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1344,22 +1345,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Karolin Hård</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Karolin Hård</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111634304</v>
+        <v>4197334</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>104404</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,42 +1369,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>221849</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Backtimjan</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Thymus serpyllum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Örsta, Upl</t>
+          <t>150 m SSÖ om Örsta, vägkanten i kurvan, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>676709</v>
+        <v>676571.1877922384</v>
       </c>
       <c r="R8" t="n">
-        <v>6618511</v>
+        <v>6617992.858972132</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1427,22 +1427,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2012-06-25</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2012-06-25</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1457,12 +1457,12 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Karolin Hård</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Karolin Hård</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>

--- a/artfynd/A 36119-2023.xlsx
+++ b/artfynd/A 36119-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111634290</v>
+        <v>2682473</v>
       </c>
       <c r="B2" t="n">
-        <v>98535</v>
+        <v>101691</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>220164</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Solvända</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Helianthemum nummularium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Örsta, Upl</t>
+          <t>150 m SSÖ om Örsta, vägkanten i kurvan, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>676709</v>
+        <v>676571.1877922384</v>
       </c>
       <c r="R2" t="n">
-        <v>6618511</v>
+        <v>6617992.858972132</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -751,22 +750,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2012-06-25</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2012-06-25</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Karolin Hård</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Karolin Hård</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111633890</v>
+        <v>4197334</v>
       </c>
       <c r="B3" t="n">
-        <v>90658</v>
+        <v>104404</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,38 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>221849</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Backtimjan</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Thymus serpyllum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Örsta, Upl</t>
+          <t>150 m SSÖ om Örsta, vägkanten i kurvan, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>676487</v>
+        <v>676571.1877922384</v>
       </c>
       <c r="R3" t="n">
-        <v>6618440</v>
+        <v>6617992.858972132</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -864,22 +862,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2012-06-25</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>2012-06-25</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>17:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Karolin Hård</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Karolin Hård</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111633843</v>
+        <v>111634290</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>676487</v>
+        <v>676709</v>
       </c>
       <c r="R4" t="n">
-        <v>6618440</v>
+        <v>6618511</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1019,10 +1017,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111633837</v>
+        <v>111633890</v>
       </c>
       <c r="B5" t="n">
-        <v>98535</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1029,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1132,7 +1130,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111634304</v>
+        <v>111633843</v>
       </c>
       <c r="B6" t="n">
         <v>90687</v>
@@ -1173,10 +1171,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>676709</v>
+        <v>676487</v>
       </c>
       <c r="R6" t="n">
-        <v>6618511</v>
+        <v>6618440</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2682473</v>
+        <v>111633837</v>
       </c>
       <c r="B7" t="n">
-        <v>101691</v>
+        <v>98535</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,41 +1255,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220164</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Solvända</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Helianthemum nummularium</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>150 m SSÖ om Örsta, vägkanten i kurvan, Upl</t>
+          <t>Örsta, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>676571.1877922384</v>
+        <v>676487</v>
       </c>
       <c r="R7" t="n">
-        <v>6617992.858972132</v>
+        <v>6618440</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1315,22 +1314,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2012-06-25</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2012-06-25</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1345,22 +1344,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Karolin Hård</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Karolin Hård</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4197334</v>
+        <v>111634304</v>
       </c>
       <c r="B8" t="n">
-        <v>104404</v>
+        <v>90687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1369,41 +1368,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221849</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Backtimjan</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Thymus serpyllum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>150 m SSÖ om Örsta, vägkanten i kurvan, Upl</t>
+          <t>Örsta, Upl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>676571.1877922384</v>
+        <v>676709</v>
       </c>
       <c r="R8" t="n">
-        <v>6617992.858972132</v>
+        <v>6618511</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1427,22 +1427,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2012-06-25</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2012-06-25</t>
+          <t>2023-08-22</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:43</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1457,12 +1457,12 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Karolin Hård</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>Karolin Hård</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
